--- a/summarydataLosAngelesBestCase.xlsx
+++ b/summarydataLosAngelesBestCase.xlsx
@@ -560,10 +560,10 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
         <v>2</v>
@@ -580,10 +580,10 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F10">
         <v>2</v>
@@ -600,10 +600,10 @@
         <v>0</v>
       </c>
       <c r="D11">
+        <v>9</v>
+      </c>
+      <c r="E11">
         <v>7</v>
-      </c>
-      <c r="E11">
-        <v>5</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -620,10 +620,10 @@
         <v>0</v>
       </c>
       <c r="D12">
+        <v>11</v>
+      </c>
+      <c r="E12">
         <v>9</v>
-      </c>
-      <c r="E12">
-        <v>7</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -640,10 +640,10 @@
         <v>2</v>
       </c>
       <c r="D13">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E13">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F13">
         <v>0</v>

--- a/summarydataLosAngelesBestCase.xlsx
+++ b/summarydataLosAngelesBestCase.xlsx
@@ -560,10 +560,10 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <v>2</v>
@@ -580,10 +580,10 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F10">
         <v>2</v>
@@ -600,10 +600,10 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E11">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -620,10 +620,10 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E12">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -640,10 +640,10 @@
         <v>2</v>
       </c>
       <c r="D13">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E13">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F13">
         <v>0</v>

--- a/summarydataLosAngelesBestCase.xlsx
+++ b/summarydataLosAngelesBestCase.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -560,10 +560,10 @@
         <v>0</v>
       </c>
       <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
         <v>3</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
       </c>
       <c r="F9">
         <v>2</v>
@@ -580,10 +580,10 @@
         <v>0</v>
       </c>
       <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10">
         <v>6</v>
-      </c>
-      <c r="E10">
-        <v>4</v>
       </c>
       <c r="F10">
         <v>2</v>
@@ -600,10 +600,10 @@
         <v>0</v>
       </c>
       <c r="D11">
+        <v>9</v>
+      </c>
+      <c r="E11">
         <v>7</v>
-      </c>
-      <c r="E11">
-        <v>5</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -640,13 +640,73 @@
         <v>2</v>
       </c>
       <c r="D13">
+        <v>9</v>
+      </c>
+      <c r="E13">
+        <v>7</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
         <v>11</v>
       </c>
-      <c r="E13">
+      <c r="E14">
+        <v>6</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>17</v>
+      </c>
+      <c r="E15">
         <v>9</v>
       </c>
-      <c r="F13">
-        <v>0</v>
+      <c r="F15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>21</v>
+      </c>
+      <c r="E16">
+        <v>12</v>
+      </c>
+      <c r="F16">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
